--- a/pz7.xlsx
+++ b/pz7.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setus\Documents\GitHub\math_d6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Администратор\Documents\GitHub\math_d6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10455" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="методом Зейделя" sheetId="2" r:id="rId1"/>
-    <sheet name="метод итераций" sheetId="1" r:id="rId2"/>
+    <sheet name="проверка сходимости метода З." sheetId="3" r:id="rId1"/>
+    <sheet name="методом Зейделя" sheetId="2" r:id="rId2"/>
+    <sheet name="метод итераций" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,154 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Метод итераций</t>
   </si>
   <si>
     <t>n</t>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>|x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n+1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>|y</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-y</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n+1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>начальное приближение</t>
@@ -210,12 +69,556 @@
   <si>
     <t>Oтвет:</t>
   </si>
+  <si>
+    <t>Матрица А</t>
+  </si>
+  <si>
+    <t>esp1</t>
+  </si>
+  <si>
+    <t>esp2</t>
+  </si>
+  <si>
+    <t>esp4</t>
+  </si>
+  <si>
+    <t>esp3</t>
+  </si>
+  <si>
+    <t>Eps</t>
+  </si>
+  <si>
+    <t>Проверка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вектор x </t>
+  </si>
+  <si>
+    <t>вектор b</t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(n-1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(n-1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(n-1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(n-1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(n)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(n)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(n)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(n)</t>
+    </r>
+  </si>
+  <si>
+    <t>x - cos(y) = 3</t>
+  </si>
+  <si>
+    <t>cos(x - 1) + y = 0,5</t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>|x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n+1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>|y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n+1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +628,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,8 +657,30 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,8 +693,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -278,7 +742,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -290,13 +754,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -305,13 +784,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -320,12 +814,82 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -335,12 +899,23 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -353,7 +928,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -368,7 +943,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -383,34 +958,175 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -514,7 +1230,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>X</c:v>
+                  <c:v>x - cos(y) = 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -685,7 +1401,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Y</c:v>
+                  <c:v>cos(x - 1) + y = 0,5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1620,6 +2336,49 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>580751</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190388</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="1200150"/>
+          <a:ext cx="2190476" cy="895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
@@ -1627,8 +2386,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>615147</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2874</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180083</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1951,195 +2710,2947 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="b">
+        <f>ABS(A2)&gt;ABS(B2)+ABS(C2)+ABS(D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="9" t="b">
+        <f>ABS(B3)&gt;ABS(A3)+ABS(C3)+ABS(D3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9" t="b">
+        <f>ABS(C4)&gt;ABS(A4)+ABS(B4)+ABS(D4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>-15</v>
+      </c>
+      <c r="F5" s="9" t="b">
+        <f>ABS(D5)&gt;ABS(A5)+ABS(B5)+ABS(C5)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" t="s">
+      <c r="B2" s="15">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0</v>
+      </c>
+      <c r="F2" s="15">
+        <f xml:space="preserve"> (15-2*C2-3*D2-E2)/15</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="15">
+        <f xml:space="preserve"> -(14-F2-2*D2-3*E2)/15</f>
+        <v>-0.8666666666666667</v>
+      </c>
+      <c r="H2" s="15">
+        <f>16-1*F2+4*G2-4*E2/15</f>
+        <v>11.533333333333333</v>
+      </c>
+      <c r="I2" s="15">
+        <f>-(11-2*F2-8*G2-H2)/15</f>
+        <v>-0.29333333333333333</v>
+      </c>
+      <c r="J2" s="15" t="str">
+        <f>IF(ABS(F2-B2)&lt;$N$2,"Stop","next")</f>
+        <v>next</v>
+      </c>
+      <c r="K2" s="15" t="str">
+        <f>IF(ABS(G2-C2)&lt;$N$2,"Stop","next")</f>
+        <v>next</v>
+      </c>
+      <c r="L2" s="15" t="str">
+        <f>IF(ABS(H2-D2)&lt;$N$2,"Stop","next")</f>
+        <v>next</v>
+      </c>
+      <c r="M2" s="16" t="str">
+        <f>IF(ABS(I2-E2)&lt;$N$2,"Stop","next")</f>
+        <v>next</v>
+      </c>
+      <c r="N2" s="13">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <f>F2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <f>G2</f>
+        <v>-0.8666666666666667</v>
+      </c>
+      <c r="D3" s="1">
+        <f>H2</f>
+        <v>11.533333333333333</v>
+      </c>
+      <c r="E3" s="1">
+        <f>I2</f>
+        <v>-0.29333333333333333</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F20" si="0" xml:space="preserve"> (15-2*C3-3*D3-E3)/15</f>
+        <v>-1.1715555555555557</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G20" si="1" xml:space="preserve"> -(14-F3-2*D3-3*E3)/15</f>
+        <v>0.46767407407407408</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H20" si="2">16-1*F3+4*G3-4*E3/15</f>
+        <v>19.120474074074075</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I20" si="3">-(11-2*F3-8*G3-H3)/15</f>
+        <v>0.63458370370370376</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f t="shared" ref="J3:J20" si="4">IF(ABS(F3-B3)&lt;$N$2,"Stop","next")</f>
+        <v>next</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f t="shared" ref="K3:K20" si="5">IF(ABS(G3-C3)&lt;$N$2,"Stop","next")</f>
+        <v>next</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f t="shared" ref="L3:L20" si="6">IF(ABS(H3-D3)&lt;$N$2,"Stop","next")</f>
+        <v>next</v>
+      </c>
+      <c r="M3" s="3" t="str">
+        <f t="shared" ref="M3:M20" si="7">IF(ABS(I3-E3)&lt;$N$2,"Stop","next")</f>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B20" si="8">F3</f>
+        <v>-1.1715555555555557</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C20" si="9">G3</f>
+        <v>0.46767407407407408</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D20" si="10">H3</f>
+        <v>19.120474074074075</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E20" si="11">I3</f>
+        <v>0.63458370370370376</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.9287569382716048</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5477294880658439</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="2"/>
+        <v>24.950452569547327</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3649849731687245</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>next</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>next</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>next</v>
+      </c>
+      <c r="M4" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="8"/>
+        <v>-2.9287569382716048</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="9"/>
+        <v>1.5477294880658439</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="10"/>
+        <v>24.950452569547327</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="11"/>
+        <v>1.3649849731687245</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.2874534438628267</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3805604409825336</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="2"/>
+        <v>29.445699214947968</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9276850570055055</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>next</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>next</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>next</v>
+      </c>
+      <c r="M5" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="8"/>
+        <v>-4.2874534438628267</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="9"/>
+        <v>2.3805604409825336</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="10"/>
+        <v>29.445699214947968</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="11"/>
+        <v>1.9276850570055055</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.3350602389209651</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0226262241327655</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>32.911515786917228</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3614936734758278</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>next</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>next</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>next</v>
+      </c>
+      <c r="M6" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="8"/>
+        <v>-5.3350602389209651</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="9"/>
+        <v>3.0226262241327655</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="10"/>
+        <v>32.911515786917228</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="11"/>
+        <v>2.3614936734758278</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.1427528988328701</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5176506463619379</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>35.583623838020408</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6959548807500111</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>next</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>next</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>next</v>
+      </c>
+      <c r="M7" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="8"/>
+        <v>-6.1427528988328701</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="9"/>
+        <v>3.5176506463619379</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="10"/>
+        <v>35.583623838020408</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="11"/>
+        <v>2.6959548807500111</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.7654751791690071</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8993091426081228</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>37.643790448068167</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="3"/>
+        <v>2.9538208820396759</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>next</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>next</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>next</v>
+      </c>
+      <c r="M8" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="8"/>
+        <v>-6.7654751791690071</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="9"/>
+        <v>3.8993091426081228</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="10"/>
+        <v>37.643790448068167</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="11"/>
+        <v>2.9538208820396759</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.2455873674306961</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>4.1935637449883112</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>39.232156778840029</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="3"/>
+        <v>3.1526328002590085</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>next</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>next</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f>IF(ABS(H9-D9)&lt;$N$2,"Stop","next")</f>
+        <v>next</v>
+      </c>
+      <c r="M9" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="8"/>
+        <v>-7.2455873674306961</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="9"/>
+        <v>4.1935637449883112</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="10"/>
+        <v>39.232156778840029</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="11"/>
+        <v>3.1526328002590085</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.6157487084503819</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>4.42043088333378</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>40.456770161716427</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3059146540990603</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>next</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>next</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>next</v>
+      </c>
+      <c r="M10" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="8"/>
+        <v>-7.6157487084503819</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="9"/>
+        <v>4.42043088333378</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="10"/>
+        <v>40.456770161716427</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="11"/>
+        <v>3.3059146540990603</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.9011391270610591</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>4.595343010577932</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>41.400933928279699</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="3"/>
+        <v>3.4240933172520687</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>next</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>next</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>next</v>
+      </c>
+      <c r="M11" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="8"/>
+        <v>-7.9011391270610591</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="9"/>
+        <v>4.595343010577932</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="10"/>
+        <v>41.400933928279699</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="11"/>
+        <v>3.4240933172520687</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.1211720748831357</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>4.7301983822288314</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>42.128874052531238</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5152077973730411</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>next</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>next</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>next</v>
+      </c>
+      <c r="M12" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="8"/>
+        <v>-8.1211720748831357</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="9"/>
+        <v>4.7301983822288314</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="10"/>
+        <v>42.128874052531238</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="11"/>
+        <v>3.5152077973730411</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.2908151146282947</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8341704255035536</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>42.690108070676359</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5854560830298801</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>next</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>next</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>next</v>
+      </c>
+      <c r="M13" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="8"/>
+        <v>-8.2908151146282947</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="9"/>
+        <v>4.8341704255035536</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="10"/>
+        <v>42.690108070676359</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="11"/>
+        <v>3.5854560830298801</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.4216080764044037</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>4.9143317542691971</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>43.122813471339889</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="3"/>
+        <v>3.6396167568456437</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>next</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>next</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>next</v>
+      </c>
+      <c r="M14" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="8"/>
+        <v>-8.4216080764044037</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="9"/>
+        <v>4.9143317542691971</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="10"/>
+        <v>43.122813471339889</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="11"/>
+        <v>3.6396167568456437</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.5224480452935794</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>4.976135277861542</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="2"/>
+        <v>43.45642468824758</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="3"/>
+        <v>3.6813740547035172</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>next</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>next</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>next</v>
+      </c>
+      <c r="M15" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="8"/>
+        <v>-8.5224480452935794</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="9"/>
+        <v>4.976135277861542</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="10"/>
+        <v>43.45642468824758</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="11"/>
+        <v>3.6813740547035172</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.6001945783446239</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>5.0237851308174051</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="2"/>
+        <v>43.713635353693313</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="3"/>
+        <v>3.713568482902887</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>next</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>next</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>next</v>
+      </c>
+      <c r="M16" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="B17" s="1">
+        <f t="shared" si="8"/>
+        <v>-8.6001945783446239</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="9"/>
+        <v>5.0237851308174051</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="10"/>
+        <v>43.713635353693313</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="11"/>
+        <v>3.713568482902887</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.6601363203745088</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>5.0605226557147187</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="2"/>
+        <v>43.911942014459285</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="3"/>
+        <v>3.7383900412952014</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>next</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>next</v>
+      </c>
+      <c r="L17" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>next</v>
+      </c>
+      <c r="M17" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="8"/>
+        <v>-8.6601363203745088</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="9"/>
+        <v>5.0605226557147187</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="10"/>
+        <v>43.911942014459285</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="11"/>
+        <v>3.7383900412952014</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.7063507597401664</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="1"/>
+        <v>5.0888468928709338</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="2"/>
+        <v>44.064834320211851</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="3"/>
+        <v>3.757527196246599</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>next</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>next</v>
+      </c>
+      <c r="L18" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>next</v>
+      </c>
+      <c r="M18" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="8"/>
+        <v>-8.7063507597401664</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="9"/>
+        <v>5.0888468928709338</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="10"/>
+        <v>44.064834320211851</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="11"/>
+        <v>3.757527196246599</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.7419815961749343</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1106845755325709</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="2"/>
+        <v>44.182712645972792</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="3"/>
+        <v>3.7722817371922326</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>next</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>next</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>next</v>
+      </c>
+      <c r="M19" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="8"/>
+        <v>-8.7419815961749343</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="9"/>
+        <v>5.1106845755325709</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="10"/>
+        <v>44.182712645972792</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="11"/>
+        <v>3.7722817371922326</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.7694525884117169</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1275211943407042</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="2"/>
+        <v>44.273595569189936</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="3"/>
+        <v>3.7836573298061422</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>next</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>next</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>next</v>
+      </c>
+      <c r="M20" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" ref="B21:B48" si="12">F20</f>
+        <v>-8.7694525884117169</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" ref="C21:C48" si="13">G20</f>
+        <v>5.1275211943407042</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" ref="D21:D48" si="14">H20</f>
+        <v>44.273595569189936</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" ref="E21:E48" si="15">I20</f>
+        <v>3.7836573298061422</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" ref="F21:F48" si="16" xml:space="preserve"> (15-2*C21-3*D21-E21)/15</f>
+        <v>-8.7906324284038249</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" ref="G21:G48" si="17" xml:space="preserve"> -(14-F21-2*D21-3*E21)/15</f>
+        <v>5.1405020466262981</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" ref="H21:H48" si="18">16-1*F21+4*G21-4*E21/15</f>
+        <v>44.343665326960718</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" ref="I21:I48" si="19">-(11-2*F21-8*G21-H21)/15</f>
+        <v>3.79242778954423</v>
+      </c>
+      <c r="J21" s="1" t="str">
+        <f t="shared" ref="J21:J48" si="20">IF(ABS(F21-B21)&lt;$N$2,"Stop","next")</f>
+        <v>next</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f t="shared" ref="K21:K48" si="21">IF(ABS(G21-C21)&lt;$N$2,"Stop","next")</f>
+        <v>next</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <f t="shared" ref="L21:L48" si="22">IF(ABS(H21-D21)&lt;$N$2,"Stop","next")</f>
+        <v>next</v>
+      </c>
+      <c r="M21" s="3" t="str">
+        <f t="shared" ref="M21:M48" si="23">IF(ABS(I21-E21)&lt;$N$2,"Stop","next")</f>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.7906324284038249</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="13"/>
+        <v>5.1405020466262981</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="14"/>
+        <v>44.343665326960718</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="15"/>
+        <v>3.79242778954423</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="16"/>
+        <v>-8.8069618575785977</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="17"/>
+        <v>5.1505101443317018</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="18"/>
+        <v>44.39768835769361</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="19"/>
+        <v>3.7991897198126687</v>
+      </c>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>next</v>
+      </c>
+      <c r="K22" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>next</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>next</v>
+      </c>
+      <c r="M22" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.8069618575785977</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="13"/>
+        <v>5.1505101443317018</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="14"/>
+        <v>44.39768835769361</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="15"/>
+        <v>3.7991897198126687</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="16"/>
+        <v>-8.8195516721037936</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="17"/>
+        <v>5.1582262801814291</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="18"/>
+        <v>44.439339534212799</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="19"/>
+        <v>3.8044030954304429</v>
+      </c>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>next</v>
+      </c>
+      <c r="K23" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>next</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>next</v>
+      </c>
+      <c r="M23" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.8195516721037936</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="13"/>
+        <v>5.1582262801814291</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="14"/>
+        <v>44.439339534212799</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="15"/>
+        <v>3.8044030954304429</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="16"/>
+        <v>-8.829258283895447</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="17"/>
+        <v>5.1641753380547657</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="18"/>
+        <v>44.471452143999727</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="19"/>
+        <v>3.808422552043131</v>
+      </c>
+      <c r="J24" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>next</v>
+      </c>
+      <c r="K24" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>next</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>next</v>
+      </c>
+      <c r="M24" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.829258283895447</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="13"/>
+        <v>5.1641753380547657</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="14"/>
+        <v>44.471452143999727</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="15"/>
+        <v>3.808422552043131</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="16"/>
+        <v>-8.8367419773434559</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="17"/>
+        <v>5.1687619977856931</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="18"/>
+        <v>44.496210621274727</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="19"/>
+        <v>3.8115215099248911</v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>next</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>next</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>next</v>
+      </c>
+      <c r="M25" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.8367419773434559</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="13"/>
+        <v>5.1687619977856931</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="14"/>
+        <v>44.496210621274727</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="15"/>
+        <v>3.8115215099248911</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="16"/>
+        <v>-8.842511824621365</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="17"/>
+        <v>5.1722982631801839</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="18"/>
+        <v>44.515299141362128</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="19"/>
+        <v>3.8139107731707247</v>
+      </c>
+      <c r="J26" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>next</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>next</v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>next</v>
+      </c>
+      <c r="M26" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.842511824621365</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="13"/>
+        <v>5.1722982631801839</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="14"/>
+        <v>44.515299141362128</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="15"/>
+        <v>3.8139107731707247</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="16"/>
+        <v>-8.8469603149078306</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="17"/>
+        <v>5.1750246858219064</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="18"/>
+        <v>44.530016185349929</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="19"/>
+        <v>3.8157528694739682</v>
+      </c>
+      <c r="J27" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>next</v>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>next</v>
+      </c>
+      <c r="L27" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>next</v>
+      </c>
+      <c r="M27" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.8469603149078306</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="13"/>
+        <v>5.1750246858219064</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="14"/>
+        <v>44.530016185349929</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="15"/>
+        <v>3.8157528694739682</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="16"/>
+        <v>-8.8503900531445048</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="17"/>
+        <v>5.1771267283984832</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="18"/>
+        <v>44.541362868212047</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="19"/>
+        <v>3.8171731059407268</v>
+      </c>
+      <c r="J28" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>next</v>
+      </c>
+      <c r="K28" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>next</v>
+      </c>
+      <c r="L28" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>next</v>
+      </c>
+      <c r="M28" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.8503900531445048</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="13"/>
+        <v>5.1771267283984832</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="14"/>
+        <v>44.541362868212047</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="15"/>
+        <v>3.8171731059407268</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="16"/>
+        <v>-8.8530343444915882</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="17"/>
+        <v>5.1787473806503117</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="18"/>
+        <v>44.550111038841976</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="19"/>
+        <v>3.8182680930040864</v>
+      </c>
+      <c r="J29" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>next</v>
+      </c>
+      <c r="K29" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>next</v>
+      </c>
+      <c r="L29" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>next</v>
+      </c>
+      <c r="M29" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.8530343444915882</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="13"/>
+        <v>5.1787473806503117</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="14"/>
+        <v>44.550111038841976</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="15"/>
+        <v>3.8182680930040864</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="16"/>
+        <v>-8.8550730647220419</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="17"/>
+        <v>5.1799968861316126</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="18"/>
+        <v>44.556855784447407</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="19"/>
+        <v>3.8191123162704148</v>
+      </c>
+      <c r="J30" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>next</v>
+      </c>
+      <c r="K30" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>next</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>next</v>
+      </c>
+      <c r="M30" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.8550730647220419</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="13"/>
+        <v>5.1799968861316126</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="14"/>
+        <v>44.556855784447407</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="15"/>
+        <v>3.8191123162704148</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="16"/>
+        <v>-8.8566448961250579</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="17"/>
+        <v>5.1809602414387337</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="18"/>
+        <v>44.562055910874548</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="19"/>
+        <v>3.8197632033422866</v>
+      </c>
+      <c r="J31" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>next</v>
+      </c>
+      <c r="K31" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>next</v>
+      </c>
+      <c r="L31" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>next</v>
+      </c>
+      <c r="M31" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.8566448961250579</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="13"/>
+        <v>5.1809602414387337</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="14"/>
+        <v>44.562055910874548</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="15"/>
+        <v>3.8197632033422866</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="16"/>
+        <v>-8.857856761256226</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="17"/>
+        <v>5.1817029780346484</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="18"/>
+        <v>44.566065152503541</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="19"/>
+        <v>3.8202650302845518</v>
+      </c>
+      <c r="J32" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>next</v>
+      </c>
+      <c r="K32" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>next</v>
+      </c>
+      <c r="L32" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>next</v>
+      </c>
+      <c r="M32" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.857856761256226</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="13"/>
+        <v>5.1817029780346484</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="14"/>
+        <v>44.566065152503541</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="15"/>
+        <v>3.8202650302845518</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="16"/>
+        <v>-8.8587910962576313</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="17"/>
+        <v>5.1822756199735398</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="18"/>
+        <v>44.569156234742579</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="19"/>
+        <v>3.8206519334677087</v>
+      </c>
+      <c r="J33" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>next</v>
+      </c>
+      <c r="K33" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>next</v>
+      </c>
+      <c r="L33" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>next</v>
+      </c>
+      <c r="M33" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.8587910962576313</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="13"/>
+        <v>5.1822756199735398</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="14"/>
+        <v>44.569156234742579</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="15"/>
+        <v>3.8206519334677087</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="16"/>
+        <v>-8.8595114585095001</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="17"/>
+        <v>5.1827171207585856</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="18"/>
+        <v>44.571539425952459</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="19"/>
+        <v>3.8209502316668096</v>
+      </c>
+      <c r="J34" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>next</v>
+      </c>
+      <c r="K34" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>next</v>
+      </c>
+      <c r="L34" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>next</v>
+      </c>
+      <c r="M34" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.8595114585095001</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="13"/>
+        <v>5.1827171207585856</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="14"/>
+        <v>44.571539425952459</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="15"/>
+        <v>3.8209502316668096</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="16"/>
+        <v>-8.8600668500694226</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="17"/>
+        <v>5.1830575131223942</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="18"/>
+        <v>44.573376840781187</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="19"/>
+        <v>3.8211802163747661</v>
+      </c>
+      <c r="J35" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>next</v>
+      </c>
+      <c r="K35" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>next</v>
+      </c>
+      <c r="L35" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>next</v>
+      </c>
+      <c r="M35" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.8600668500694226</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="13"/>
+        <v>5.1830575131223942</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="14"/>
+        <v>44.573376840781187</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="15"/>
+        <v>3.8211802163747661</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="16"/>
+        <v>-8.8604950509975406</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="17"/>
+        <v>5.183319951979275</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="18"/>
+        <v>44.574793467881371</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="19"/>
+        <v>3.8213575321146993</v>
+      </c>
+      <c r="J36" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>next</v>
+      </c>
+      <c r="K36" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>next</v>
+      </c>
+      <c r="L36" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>next</v>
+      </c>
+      <c r="M36" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.8604950509975406</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="13"/>
+        <v>5.183319951979275</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="14"/>
+        <v>44.574793467881371</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="15"/>
+        <v>3.8213575321146993</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="16"/>
+        <v>-8.8608251893144896</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="17"/>
+        <v>5.1835222895194892</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="18"/>
+        <v>44.57588567216186</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="19"/>
+        <v>3.8214942406459196</v>
+      </c>
+      <c r="J37" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>next</v>
+      </c>
+      <c r="K37" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>next</v>
+      </c>
+      <c r="L37" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>next</v>
+      </c>
+      <c r="M37" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.8608251893144896</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="13"/>
+        <v>5.1835222895194892</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="14"/>
+        <v>44.57588567216186</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="15"/>
+        <v>3.8214942406459196</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="16"/>
+        <v>-8.8610797224113664</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="17"/>
+        <v>5.1836782895900066</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="18"/>
+        <v>44.576727749932488</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="19"/>
+        <v>3.8215996414553208</v>
+      </c>
+      <c r="J38" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>next</v>
+      </c>
+      <c r="K38" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>next</v>
+      </c>
+      <c r="L38" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>next</v>
+      </c>
+      <c r="M38" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>next</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.8610797224113664</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="13"/>
+        <v>5.1836782895900066</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="14"/>
+        <v>44.576727749932488</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="15"/>
+        <v>3.8215996414553208</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="16"/>
+        <v>-8.861275964695519</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="17"/>
+        <v>5.1837985639690283</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="18"/>
+        <v>44.577376982850211</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="19"/>
+        <v>3.8216809043474265</v>
+      </c>
+      <c r="J39" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>next</v>
+      </c>
+      <c r="K39" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>next</v>
+      </c>
+      <c r="L39" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>next</v>
+      </c>
+      <c r="M39" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Stop</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.861275964695519</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="13"/>
+        <v>5.1837985639690283</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="14"/>
+        <v>44.577376982850211</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="15"/>
+        <v>3.8216809043474265</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="16"/>
+        <v>-8.8614272653890751</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="17"/>
+        <v>5.1838912942235753</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="18"/>
+        <v>44.5778775344574</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="19"/>
+        <v>3.8217435571645235</v>
+      </c>
+      <c r="J40" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>next</v>
+      </c>
+      <c r="K40" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Stop</v>
+      </c>
+      <c r="L40" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>next</v>
+      </c>
+      <c r="M40" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Stop</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.8614272653890751</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="13"/>
+        <v>5.1838912942235753</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="14"/>
+        <v>44.5778775344574</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="15"/>
+        <v>3.8217435571645235</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="16"/>
+        <v>-8.861543916598924</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="17"/>
+        <v>5.1839627882539636</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="18"/>
+        <v>44.578263454370905</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="19"/>
+        <v>3.8217918618136508</v>
+      </c>
+      <c r="J41" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>next</v>
+      </c>
+      <c r="K41" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Stop</v>
+      </c>
+      <c r="L41" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>next</v>
+      </c>
+      <c r="M41" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Stop</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.861543916598924</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="13"/>
+        <v>5.1839627882539636</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="14"/>
+        <v>44.578263454370905</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="15"/>
+        <v>3.8217918618136508</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="16"/>
+        <v>-8.8616338534289518</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="17"/>
+        <v>5.184017909383587</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="18"/>
+        <v>44.578560994479659</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="19"/>
+        <v>3.8218291041793635</v>
+      </c>
+      <c r="J42" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>Stop</v>
+      </c>
+      <c r="K42" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Stop</v>
+      </c>
+      <c r="L42" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>next</v>
+      </c>
+      <c r="M42" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Stop</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.8616338534289518</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="13"/>
+        <v>5.184017909383587</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="14"/>
+        <v>44.578560994479659</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="15"/>
+        <v>3.8218291041793635</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="16"/>
+        <v>-8.861703193759034</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="17"/>
+        <v>5.1840604071825576</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="18"/>
+        <v>44.578790394708108</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="19"/>
+        <v>3.8218578176433669</v>
+      </c>
+      <c r="J43" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>Stop</v>
+      </c>
+      <c r="K43" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Stop</v>
+      </c>
+      <c r="L43" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>next</v>
+      </c>
+      <c r="M43" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Stop</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.861703193759034</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="13"/>
+        <v>5.1840604071825576</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="14"/>
+        <v>44.578790394708108</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="15"/>
+        <v>3.8218578176433669</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="16"/>
+        <v>-8.861756654408854</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="17"/>
+        <v>5.1840931725291641</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="18"/>
+        <v>44.578967259820615</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="19"/>
+        <v>3.8218799554157479</v>
+      </c>
+      <c r="J44" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>Stop</v>
+      </c>
+      <c r="K44" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Stop</v>
+      </c>
+      <c r="L44" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>next</v>
+      </c>
+      <c r="M44" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Stop</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.861756654408854</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="13"/>
+        <v>5.1840931725291641</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="14"/>
+        <v>44.578967259820615</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="15"/>
+        <v>3.8218799554157479</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="16"/>
+        <v>-8.8617978719957264</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="17"/>
+        <v>5.184118434259517</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="18"/>
+        <v>44.579103620922929</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="19"/>
+        <v>3.8218970234005076</v>
+      </c>
+      <c r="J45" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>Stop</v>
+      </c>
+      <c r="K45" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Stop</v>
+      </c>
+      <c r="L45" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>next</v>
+      </c>
+      <c r="M45" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Stop</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.8617978719957264</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="13"/>
+        <v>5.184118434259517</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="14"/>
+        <v>44.579103620922929</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="15"/>
+        <v>3.8218970234005076</v>
+      </c>
+      <c r="F46" s="23">
+        <f t="shared" si="16"/>
+        <v>-8.861829650312556</v>
+      </c>
+      <c r="G46" s="23">
+        <f t="shared" si="17"/>
+        <v>5.1841379107823213</v>
+      </c>
+      <c r="H46" s="23">
+        <f t="shared" si="18"/>
+        <v>44.579208753868379</v>
+      </c>
+      <c r="I46" s="23">
+        <f t="shared" si="19"/>
+        <v>3.8219101826334554</v>
+      </c>
+      <c r="J46" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>Stop</v>
+      </c>
+      <c r="K46" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Stop</v>
+      </c>
+      <c r="L46" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>next</v>
+      </c>
+      <c r="M46" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Stop</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <f t="shared" si="12"/>
+        <v>-8.861829650312556</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="13"/>
+        <v>5.1841379107823213</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="14"/>
+        <v>44.579208753868379</v>
+      </c>
+      <c r="E47" s="21">
+        <f t="shared" si="15"/>
+        <v>3.8219101826334554</v>
+      </c>
+      <c r="F47" s="25">
+        <f t="shared" si="16"/>
+        <v>-8.8618541510535476</v>
+      </c>
+      <c r="G47" s="26">
+        <f t="shared" si="17"/>
+        <v>5.1841529269722377</v>
+      </c>
+      <c r="H47" s="26">
+        <f t="shared" si="18"/>
+        <v>44.579289810240248</v>
+      </c>
+      <c r="I47" s="27">
+        <f t="shared" si="19"/>
+        <v>3.8219203282607368</v>
+      </c>
+      <c r="J47" s="28" t="str">
+        <f t="shared" si="20"/>
+        <v>Stop</v>
+      </c>
+      <c r="K47" s="29" t="str">
+        <f t="shared" si="21"/>
+        <v>Stop</v>
+      </c>
+      <c r="L47" s="29" t="str">
+        <f t="shared" si="22"/>
+        <v>Stop</v>
+      </c>
+      <c r="M47" s="30" t="str">
+        <f t="shared" si="23"/>
+        <v>Stop</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5">
+        <f t="shared" si="12"/>
+        <v>-8.8618541510535476</v>
+      </c>
+      <c r="C48" s="5">
+        <f t="shared" si="13"/>
+        <v>5.1841529269722377</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" si="14"/>
+        <v>44.579289810240248</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="15"/>
+        <v>3.8219203282607368</v>
+      </c>
+      <c r="F48" s="24">
+        <f t="shared" si="16"/>
+        <v>-8.8618730408617292</v>
+      </c>
+      <c r="G48" s="24">
+        <f t="shared" si="17"/>
+        <v>5.1841645042933973</v>
+      </c>
+      <c r="H48" s="24">
+        <f t="shared" si="18"/>
+        <v>44.579352303832458</v>
+      </c>
+      <c r="I48" s="24">
+        <f t="shared" si="19"/>
+        <v>3.8219281504304119</v>
+      </c>
+      <c r="J48" s="5" t="str">
+        <f t="shared" si="20"/>
+        <v>Stop</v>
+      </c>
+      <c r="K48" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>Stop</v>
+      </c>
+      <c r="L48" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>Stop</v>
+      </c>
+      <c r="M48" s="6" t="str">
+        <f t="shared" si="23"/>
+        <v>Stop</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <v>15</v>
+      </c>
+      <c r="B52" s="15">
+        <v>2</v>
+      </c>
+      <c r="C52" s="15">
+        <v>3</v>
+      </c>
+      <c r="D52" s="15">
+        <v>1</v>
+      </c>
+      <c r="E52" s="15">
+        <f>F47</f>
+        <v>-8.8618541510535476</v>
+      </c>
+      <c r="F52" s="16">
+        <f t="array" ref="F52:F55">MMULT(A52:D55,E52:E55)</f>
+        <v>15.000283347122723</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1">
+        <v>-15</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1">
+        <f>G47</f>
+        <v>5.1841529269722377</v>
+      </c>
+      <c r="F53" s="3">
+        <v>14.000192549625584</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1">
+        <v>-4</v>
+      </c>
+      <c r="C54" s="1">
+        <v>15</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4</v>
+      </c>
+      <c r="E54" s="1">
+        <f>H47</f>
+        <v>44.579289810240248</v>
+      </c>
+      <c r="F54" s="3">
+        <v>654.37856260770423</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>2</v>
+      </c>
+      <c r="B55" s="5">
+        <v>8</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5">
+        <v>-15</v>
+      </c>
+      <c r="E55" s="5">
+        <f>I47</f>
+        <v>3.8219203282607368</v>
+      </c>
+      <c r="F55" s="6">
         <v>11</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A51:D51"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="I2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>0.01</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="14">
         <v>0</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="15">
         <f>COS(I3)+3</f>
         <v>4</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="16">
         <f>0.5-COS(I3-1)</f>
         <v>-4.0302305868139765E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I4" s="6">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I4" s="2">
         <v>0.2</v>
       </c>
-      <c r="J4" s="2">
-        <f t="shared" ref="J4:J23" si="0">COS(I4)+3</f>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:J22" si="0">COS(I4)+3</f>
         <v>3.9800665778412414</v>
       </c>
-      <c r="K4" s="7">
-        <f t="shared" ref="K4:K25" si="1">0.5-COS(I4-1)</f>
+      <c r="K4" s="3">
+        <f t="shared" ref="K4:K22" si="1">0.5-COS(I4-1)</f>
         <v>-0.19670670934716539</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I5" s="6">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I5" s="2">
         <v>0.4</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <f t="shared" si="0"/>
         <v>3.9210609940028851</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="3">
         <f t="shared" si="1"/>
         <v>-0.32533561490967833</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I6" s="6">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="2">
         <v>0.6</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <f t="shared" si="0"/>
         <v>3.8253356149096782</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="3">
         <f t="shared" si="1"/>
         <v>-0.4210609940028851</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="B7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="I7" s="2">
         <v>0.8</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <f t="shared" si="0"/>
         <v>3.6967067093471653</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="3">
         <f t="shared" si="1"/>
         <v>-0.48006657784124163</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>0</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="15">
         <f>O21</f>
         <v>3.4</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="15">
         <f>O22</f>
         <v>1.2</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="D8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <f t="shared" si="0"/>
         <v>3.5403023058681398</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="3">
         <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <f>COS(C8)+3</f>
         <v>3.3623577544766734</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <f>0.5-COS(B8-1)</f>
         <v>1.2373937155412453</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <f>ABS(B9-B10)</f>
         <v>3.5097593813716799E-2</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="3">
         <f>ABS(C9-C10)</f>
         <v>2.5942305951158318E-2</v>
       </c>
@@ -2147,35 +5658,35 @@
         <f>IF(AND(D9&lt;$F$3,E9&lt;$F$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="2">
         <v>1.2</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <f t="shared" si="0"/>
         <v>3.3623577544766734</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="3">
         <f t="shared" si="1"/>
         <v>-0.48006657784124163</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <f t="shared" ref="B10:B17" si="2">COS(C9)+3</f>
         <v>3.3272601606629566</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <f t="shared" ref="C10:C17" si="3">0.5-COS(B9-1)</f>
         <v>1.211451409590087</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <f t="shared" ref="D10:D17" si="4">ABS(B10-B11)</f>
         <v>2.4400907162389185E-2</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="3">
         <f t="shared" ref="E10:E17" si="5">ABS(C10-C11)</f>
         <v>2.5097406984742943E-2</v>
       </c>
@@ -2183,35 +5694,35 @@
         <f t="shared" ref="F10:F17" si="6">IF(AND(D10&lt;$F$3,E10&lt;$F$3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="2">
         <v>1.4</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <f t="shared" si="0"/>
         <v>3.1699671429002412</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="3">
         <f t="shared" si="1"/>
         <v>-0.4210609940028851</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <f>COS(C10)+3</f>
         <v>3.3516610678253458</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <f t="shared" si="3"/>
         <v>1.1863540026053441</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <f t="shared" si="4"/>
         <v>2.338115748200531E-2</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="3">
         <f t="shared" si="5"/>
         <v>1.7539909675782006E-2</v>
       </c>
@@ -2219,35 +5730,35 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="2">
         <v>1.6</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <f t="shared" si="0"/>
         <v>2.9708004776987114</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="3">
         <f t="shared" si="1"/>
         <v>-0.32533561490967822</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <f t="shared" si="2"/>
         <v>3.3750422253073511</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <f t="shared" si="3"/>
         <v>1.2038939122811261</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <f t="shared" si="4"/>
         <v>1.6316487233331678E-2</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="3">
         <f t="shared" si="5"/>
         <v>1.6413849597116226E-2</v>
       </c>
@@ -2255,35 +5766,35 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="2">
         <v>1.8</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <f t="shared" si="0"/>
         <v>2.7727979053069127</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="3">
         <f t="shared" si="1"/>
         <v>-0.19670670934716539</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <f t="shared" si="2"/>
         <v>3.3587257380740194</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <f>0.5-COS(B12-1)</f>
         <v>1.2203077618782423</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <f t="shared" si="4"/>
         <v>1.5369027009778158E-2</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="3">
         <f t="shared" si="5"/>
         <v>1.1413385352711636E-2</v>
       </c>
@@ -2291,35 +5802,35 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="2">
         <v>2</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <f t="shared" si="0"/>
         <v>2.5838531634528574</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="3">
         <f t="shared" si="1"/>
         <v>-4.0302305868139765E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>6</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <f t="shared" si="2"/>
         <v>3.3433567110642413</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <f t="shared" si="3"/>
         <v>1.2088943765255307</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <f t="shared" si="4"/>
         <v>1.0696913192732804E-2</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="3">
         <f t="shared" si="5"/>
         <v>1.0923294500797986E-2</v>
       </c>
@@ -2327,35 +5838,35 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <f t="shared" si="0"/>
         <v>2.4114988827446542</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="3">
         <f t="shared" si="1"/>
         <v>0.1376422455233266</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>7</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <f t="shared" si="2"/>
         <v>3.3540536242569741</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <f t="shared" si="3"/>
         <v>1.1979710820247327</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <f t="shared" si="4"/>
         <v>1.0194413953394044E-2</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="3">
         <f t="shared" si="5"/>
         <v>7.6202590545921822E-3</v>
       </c>
@@ -2363,35 +5874,35 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="2">
         <v>2.4</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <f t="shared" si="0"/>
         <v>2.2626062844587547</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="3">
         <f t="shared" si="1"/>
         <v>0.33003285709975894</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>8</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="7">
         <f t="shared" si="2"/>
         <v>3.3642480382103681</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="7">
         <f t="shared" si="3"/>
         <v>1.2055913410793249</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <f t="shared" si="4"/>
         <v>7.1072692065348164E-3</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="3">
         <f t="shared" si="5"/>
         <v>7.1871657438538072E-3</v>
       </c>
@@ -2399,38 +5910,39 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="6">
+      <c r="G16" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="37"/>
+      <c r="I16" s="2">
         <v>2.6</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <f t="shared" si="0"/>
         <v>2.1431112466310527</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="3">
         <f t="shared" si="1"/>
         <v>0.52919952230128886</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>9</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="5">
         <f t="shared" si="2"/>
         <v>3.3571407690038333</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="5">
         <f t="shared" si="3"/>
         <v>1.2127785068231787</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="5">
         <f t="shared" si="4"/>
         <v>3.3571407690038333</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="6">
         <f t="shared" si="5"/>
         <v>1.2127785068231787</v>
       </c>
@@ -2438,119 +5950,125 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="2">
         <v>2.8</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <f t="shared" si="0"/>
         <v>2.0577776593313422</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="3">
         <f t="shared" si="1"/>
         <v>0.72720209469308683</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I18" s="6">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I18" s="2">
         <v>3</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <f t="shared" si="0"/>
         <v>2.0100075033995548</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="3">
         <f t="shared" si="1"/>
         <v>0.91614683654714235</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="6">
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="2">
         <v>3.2</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <f t="shared" si="0"/>
         <v>2.0017052242052467</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="3">
         <f t="shared" si="1"/>
         <v>1.0885011172553458</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="22">
         <f>B16</f>
         <v>3.3642480382103681</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <f>C16</f>
         <v>1.2055913410793249</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="2">
         <v>3.4</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <f t="shared" si="0"/>
         <v>2.0332018074205389</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="3">
         <f t="shared" si="1"/>
         <v>1.2373937155412453</v>
       </c>
-      <c r="N20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I21" s="6">
+      <c r="N20" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="39"/>
+      <c r="P20" s="40"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I21" s="2">
         <v>3.6</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <f t="shared" si="0"/>
         <v>2.1032415836658531</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="3">
         <f t="shared" si="1"/>
         <v>1.3568887533689473</v>
       </c>
       <c r="N21" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O21">
         <v>3.4</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I22" s="8">
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="4">
         <v>3.8</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="5">
         <f t="shared" si="0"/>
         <v>2.2090322880855831</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="6">
         <f t="shared" si="1"/>
         <v>1.4422223406686581</v>
       </c>
       <c r="N22" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O22">
         <v>1.2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
